--- a/compare.xlsx
+++ b/compare.xlsx
@@ -532,7 +532,7 @@
         <v>25.087132932418747</v>
       </c>
       <c r="D2" t="n">
-        <v>25.07755247012217</v>
+        <v>25.177342031897375</v>
       </c>
     </row>
     <row r="3">
@@ -546,7 +546,7 @@
         <v>23.43267891306167</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4445566844812</v>
+        <v>23.22015055237158</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +560,7 @@
         <v>33.816599855232944</v>
       </c>
       <c r="D4" t="n">
-        <v>33.84818243482013</v>
+        <v>33.83351771807084</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>24.27136772260373</v>
       </c>
       <c r="D5" t="n">
-        <v>24.498572310374342</v>
+        <v>24.336026871680616</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +588,7 @@
         <v>35.45682732015274</v>
       </c>
       <c r="D6" t="n">
-        <v>35.54427322995553</v>
+        <v>35.50943017540838</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         <v>30.501878805549623</v>
       </c>
       <c r="D7" t="n">
-        <v>30.674708323500237</v>
+        <v>30.42743644988672</v>
       </c>
     </row>
     <row r="8">
@@ -616,7 +616,7 @@
         <v>38.78056534488399</v>
       </c>
       <c r="D8" t="n">
-        <v>38.776335438263786</v>
+        <v>38.79184664410773</v>
       </c>
     </row>
     <row r="9">
@@ -630,7 +630,7 @@
         <v>35.91069722508345</v>
       </c>
       <c r="D9" t="n">
-        <v>35.86137647646013</v>
+        <v>35.90499867932454</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         <v>30.17410489983232</v>
       </c>
       <c r="D10" t="n">
-        <v>30.1432906840625</v>
+        <v>30.136622206723136</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>-5.5350015434788995</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.639090889793701</v>
+        <v>-5.965198719831991</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         <v>-15.002546120126295</v>
       </c>
       <c r="D12" t="n">
-        <v>-15.211557758684549</v>
+        <v>-14.554939408376146</v>
       </c>
     </row>
     <row r="13">
@@ -686,7 +686,7 @@
         <v>-24.629408050479338</v>
       </c>
       <c r="D13" t="n">
-        <v>-24.88158021846929</v>
+        <v>-24.737918888281843</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +700,7 @@
         <v>-25.83071270909593</v>
       </c>
       <c r="D14" t="n">
-        <v>-26.103056651050554</v>
+        <v>-26.125670875167604</v>
       </c>
     </row>
     <row r="15">
@@ -714,7 +714,7 @@
         <v>-15.553106573036436</v>
       </c>
       <c r="D15" t="n">
-        <v>-15.687556924759422</v>
+        <v>-15.74637291175087</v>
       </c>
     </row>
     <row r="16">
@@ -728,7 +728,7 @@
         <v>-17.907599191826346</v>
       </c>
       <c r="D16" t="n">
-        <v>-18.353203338826628</v>
+        <v>-17.96410963360576</v>
       </c>
     </row>
     <row r="17">
@@ -742,7 +742,7 @@
         <v>-17.22485013817074</v>
       </c>
       <c r="D17" t="n">
-        <v>-17.168655279519072</v>
+        <v>-17.240605748810744</v>
       </c>
     </row>
     <row r="18">
@@ -756,7 +756,7 @@
         <v>-14.632152348571232</v>
       </c>
       <c r="D18" t="n">
-        <v>-14.58236181752208</v>
+        <v>-14.497811469915035</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +770,7 @@
         <v>-17.86373869020374</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.891412016928918</v>
+        <v>-17.73082555598836</v>
       </c>
     </row>
     <row r="20">
@@ -784,7 +784,7 @@
         <v>-0.04895994539970969</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04891933153204989</v>
+        <v>-0.049542591082116554</v>
       </c>
     </row>
     <row r="21">
@@ -798,7 +798,7 @@
         <v>-0.046925789237995404</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.047044407366191754</v>
+        <v>-0.0459145307270958</v>
       </c>
     </row>
     <row r="22">
@@ -812,7 +812,7 @@
         <v>-0.08856387073450263</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.08871773053033129</v>
+        <v>-0.08870308394800133</v>
       </c>
     </row>
     <row r="23">
@@ -826,7 +826,7 @@
         <v>-0.034327448212184024</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.035592996914361304</v>
+        <v>-0.034584227289441515</v>
       </c>
     </row>
     <row r="24">
@@ -840,7 +840,7 @@
         <v>-0.08260998060298902</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08322171394025081</v>
+        <v>-0.08282095998420608</v>
       </c>
     </row>
     <row r="25">
@@ -854,7 +854,7 @@
         <v>-0.0960305816008101</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.09717720681459628</v>
+        <v>-0.09563365647987422</v>
       </c>
     </row>
     <row r="26">
@@ -868,7 +868,7 @@
         <v>-0.10549660311542822</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.10547355897992129</v>
+        <v>-0.10539805609792942</v>
       </c>
     </row>
     <row r="27">
@@ -882,7 +882,7 @@
         <v>-0.08122746847430448</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.08095969331242998</v>
+        <v>-0.08119903278003075</v>
       </c>
     </row>
     <row r="28">
@@ -896,7 +896,7 @@
         <v>-0.06826603385000483</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.06794152685687496</v>
+        <v>-0.0680905021041882</v>
       </c>
     </row>
     <row r="29">
@@ -910,7 +910,7 @@
         <v>31.393003548590723</v>
       </c>
       <c r="D29" t="n">
-        <v>31.327542208725465</v>
+        <v>31.34947291264592</v>
       </c>
     </row>
     <row r="30">
@@ -924,7 +924,7 @@
         <v>-16.46813590552801</v>
       </c>
       <c r="D30" t="n">
-        <v>-16.44194080370986</v>
+        <v>-16.59824115949862</v>
       </c>
     </row>
     <row r="31">
@@ -938,7 +938,7 @@
         <v>-0.07185164608784372</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0723298848134091</v>
+        <v>-0.07237676783735178</v>
       </c>
     </row>
     <row r="32">
@@ -952,7 +952,7 @@
         <v>4.910589245506271</v>
       </c>
       <c r="D32" t="n">
-        <v>4.897290756294746</v>
+        <v>4.8599703898700835</v>
       </c>
     </row>
     <row r="33">
@@ -966,7 +966,7 @@
         <v>42.334600730089235</v>
       </c>
       <c r="D33" t="n">
-        <v>40.780488021107786</v>
+        <v>41.46931154810274</v>
       </c>
     </row>
     <row r="34">
@@ -980,7 +980,7 @@
         <v>55.29394592200296</v>
       </c>
       <c r="D34" t="n">
-        <v>59.99884227394271</v>
+        <v>53.622273670994566</v>
       </c>
     </row>
     <row r="35">
@@ -994,7 +994,7 @@
         <v>0.0011768930806999802</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0011477776033907243</v>
+        <v>0.001092149813945973</v>
       </c>
     </row>
     <row r="36">
@@ -1008,7 +1008,7 @@
         <v>2.2140400453032227</v>
       </c>
       <c r="D36" t="n">
-        <v>2.211163744872447</v>
+        <v>2.2025555480283923</v>
       </c>
     </row>
     <row r="37">
@@ -1022,7 +1022,7 @@
         <v>6.255992719175815</v>
       </c>
       <c r="D37" t="n">
-        <v>6.161443250622616</v>
+        <v>6.197056219737997</v>
       </c>
     </row>
     <row r="38">
@@ -1036,7 +1036,7 @@
         <v>7.060486420869023</v>
       </c>
       <c r="D38" t="n">
-        <v>7.306939378523591</v>
+        <v>6.934954720679403</v>
       </c>
     </row>
     <row r="39">
@@ -1050,7 +1050,7 @@
         <v>0.03279628926620497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.032402568705434565</v>
+        <v>0.03184016789483834</v>
       </c>
     </row>
     <row r="40">
@@ -1064,7 +1064,7 @@
         <v>14.924867643062713</v>
       </c>
       <c r="D40" t="n">
-        <v>14.885601405015606</v>
+        <v>14.751231753147298</v>
       </c>
     </row>
     <row r="41">
@@ -1078,7 +1078,7 @@
         <v>19.55213138893985</v>
       </c>
       <c r="D41" t="n">
-        <v>19.43846158032847</v>
+        <v>19.212143312065383</v>
       </c>
     </row>
     <row r="42">
@@ -1092,7 +1092,7 @@
         <v>8.430132792935376</v>
       </c>
       <c r="D42" t="n">
-        <v>8.23299892579665</v>
+        <v>8.665211143995437</v>
       </c>
     </row>
     <row r="43">
@@ -1106,7 +1106,7 @@
         <v>9.187191804753603</v>
       </c>
       <c r="D43" t="n">
-        <v>8.96660221635084</v>
+        <v>9.095598829788996</v>
       </c>
     </row>
     <row r="44">
@@ -1120,7 +1120,7 @@
         <v>-1.5593449864921989</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.6044843406762141</v>
+        <v>-1.789644003486988</v>
       </c>
     </row>
     <row r="45">
@@ -1134,7 +1134,7 @@
         <v>19.903720747116306</v>
       </c>
       <c r="D45" t="n">
-        <v>19.85671630519611</v>
+        <v>19.763057263657515</v>
       </c>
     </row>
     <row r="46">
@@ -1148,7 +1148,7 @@
         <v>12.594279613723277</v>
       </c>
       <c r="D46" t="n">
-        <v>12.321504984673606</v>
+        <v>12.463326816280961</v>
       </c>
     </row>
     <row r="47">
@@ -1162,7 +1162,7 @@
         <v>21.55571520671325</v>
       </c>
       <c r="D47" t="n">
-        <v>21.60768015874471</v>
+        <v>21.55124089529699</v>
       </c>
     </row>
     <row r="48">
@@ -1176,7 +1176,7 @@
         <v>21.278544876512225</v>
       </c>
       <c r="D48" t="n">
-        <v>21.279014658938053</v>
+        <v>21.407187209409507</v>
       </c>
     </row>
     <row r="49">
@@ -1190,7 +1190,7 @@
         <v>12.310366209628581</v>
       </c>
       <c r="D49" t="n">
-        <v>12.25187866713358</v>
+        <v>12.405796650734775</v>
       </c>
     </row>
     <row r="50">
@@ -1204,7 +1204,7 @@
         <v>5534.838345133415</v>
       </c>
       <c r="D50" t="n">
-        <v>5504.4471771091285</v>
+        <v>5508.413122850956</v>
       </c>
     </row>
     <row r="51">
@@ -1218,7 +1218,7 @@
         <v>4676.937208458088</v>
       </c>
       <c r="D51" t="n">
-        <v>4675.808918923471</v>
+        <v>4681.5517843900425</v>
       </c>
     </row>
     <row r="52">
@@ -1232,7 +1232,7 @@
         <v>4332.646087784219</v>
       </c>
       <c r="D52" t="n">
-        <v>4331.996115259518</v>
+        <v>4310.92703536643</v>
       </c>
     </row>
     <row r="53">
@@ -1246,7 +1246,7 @@
         <v>5627.043800005541</v>
       </c>
       <c r="D53" t="n">
-        <v>5630.163814942428</v>
+        <v>5627.0105398566575</v>
       </c>
     </row>
     <row r="54">
@@ -1260,7 +1260,7 @@
         <v>4916.232558749891</v>
       </c>
       <c r="D54" t="n">
-        <v>4933.915402394755</v>
+        <v>4924.367468288107</v>
       </c>
     </row>
     <row r="55">
@@ -1274,7 +1274,7 @@
         <v>6207.590654311386</v>
       </c>
       <c r="D55" t="n">
-        <v>6210.655255460668</v>
+        <v>6214.146335216481</v>
       </c>
     </row>
     <row r="56">
@@ -1288,7 +1288,7 @@
         <v>4590.842481349842</v>
       </c>
       <c r="D56" t="n">
-        <v>4598.772624125599</v>
+        <v>4584.5168194180405</v>
       </c>
     </row>
     <row r="57">
@@ -1302,7 +1302,7 @@
         <v>6335.021712615934</v>
       </c>
       <c r="D57" t="n">
-        <v>6334.67699759744</v>
+        <v>6340.743273292203</v>
       </c>
     </row>
     <row r="58">
@@ -1316,7 +1316,7 @@
         <v>6360.281426061212</v>
       </c>
       <c r="D58" t="n">
-        <v>6356.234444682344</v>
+        <v>6359.738708592527</v>
       </c>
     </row>
     <row r="59">
@@ -1330,7 +1330,7 @@
         <v>5343.821363809653</v>
       </c>
       <c r="D59" t="n">
-        <v>5346.011147083977</v>
+        <v>5339.906250487425</v>
       </c>
     </row>
     <row r="60">
@@ -1344,7 +1344,7 @@
         <v>142.3372084580875</v>
       </c>
       <c r="D60" t="n">
-        <v>-141.2089189234703</v>
+        <v>-146.95178439004226</v>
       </c>
     </row>
     <row r="61">
@@ -1358,7 +1358,7 @@
         <v>303.4460877842196</v>
       </c>
       <c r="D61" t="n">
-        <v>-302.79611525951833</v>
+        <v>-281.7270353664301</v>
       </c>
     </row>
     <row r="62">
@@ -1372,7 +1372,7 @@
         <v>486.24380000554083</v>
       </c>
       <c r="D62" t="n">
-        <v>-489.36381494242806</v>
+        <v>-486.21053985665736</v>
       </c>
     </row>
     <row r="63">
@@ -1386,7 +1386,7 @@
         <v>462.83255874989106</v>
       </c>
       <c r="D63" t="n">
-        <v>-480.515402394755</v>
+        <v>-470.9674682881082</v>
       </c>
     </row>
     <row r="64">
@@ -1400,7 +1400,7 @@
         <v>323.3906543113864</v>
       </c>
       <c r="D64" t="n">
-        <v>-326.4552554606678</v>
+        <v>-329.94633521648154</v>
       </c>
     </row>
     <row r="65">
@@ -1414,7 +1414,7 @@
         <v>382.4424813498431</v>
       </c>
       <c r="D65" t="n">
-        <v>-390.37262412559886</v>
+        <v>-376.1168194180406</v>
       </c>
     </row>
     <row r="66">
@@ -1428,7 +1428,7 @@
         <v>367.52171261593423</v>
       </c>
       <c r="D66" t="n">
-        <v>-367.1769975974406</v>
+        <v>-373.2432732922033</v>
       </c>
     </row>
     <row r="67">
@@ -1442,7 +1442,7 @@
         <v>310.18142606121177</v>
       </c>
       <c r="D67" t="n">
-        <v>-306.134444682343</v>
+        <v>-309.63870859252654</v>
       </c>
     </row>
     <row r="68">
@@ -1456,7 +1456,7 @@
         <v>361.2213638096524</v>
       </c>
       <c r="D68" t="n">
-        <v>-363.4111470839773</v>
+        <v>-357.3062504874239</v>
       </c>
     </row>
     <row r="69">
@@ -1470,7 +1470,7 @@
         <v>932.0270962478479</v>
       </c>
       <c r="D69" t="n">
-        <v>-933.3688491254167</v>
+        <v>-914.8893596131297</v>
       </c>
     </row>
     <row r="70">
@@ -1484,7 +1484,7 @@
         <v>786.2232130612766</v>
       </c>
       <c r="D70" t="n">
-        <v>-806.9706578554219</v>
+        <v>-800.9138035045888</v>
       </c>
     </row>
     <row r="71">
@@ -1498,7 +1498,7 @@
         <v>1421.3669838366432</v>
       </c>
       <c r="D71" t="n">
-        <v>-1427.0952134893614</v>
+        <v>-1416.305051790196</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         <v>-424.2532755256252</v>
       </c>
       <c r="D72" t="n">
-        <v>-424.71571370668283</v>
+        <v>-424.1954202041617</v>
       </c>
     </row>
     <row r="73">
@@ -1526,7 +1526,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" t="n">
-        <v>1.4520012558315413E303</v>
+        <v>2.4964005725148738E305</v>
       </c>
     </row>
     <row r="74">
@@ -1540,7 +1540,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" t="n">
-        <v>1.7490759821343107E150</v>
+        <v>2.256458594552208E151</v>
       </c>
     </row>
   </sheetData>
